--- a/STORIES.xlsx
+++ b/STORIES.xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="αναθεση" sheetId="2" r:id="rId2"/>
+    <sheet name="1st sprint" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
-  <si>
-    <t>1ο SPRINT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>STORIES</t>
   </si>
@@ -71,9 +68,6 @@
     <t>sunolo</t>
   </si>
   <si>
-    <t>ara peripou 6 points o ka9enas</t>
-  </si>
-  <si>
     <t>ΔΥΝΑΤΟΤΗΤΑ ΔΗΜΙΟΥΡΓΙΑΣ ΝΕΑΣ ΠΡΟΣΦΟΡΑΣ ΩΣ BUSINESS</t>
   </si>
   <si>
@@ -123,6 +117,18 @@
   </si>
   <si>
     <t>ΣΥΝΟΛΟ</t>
+  </si>
+  <si>
+    <t>1st SPRINT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>ΓΙΑΝΝΗΣ</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,6 +175,24 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,21 +262,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -565,37 +601,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="37.5" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
@@ -612,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -630,21 +666,21 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1">
+    <row r="5" spans="1:15" ht="30.75" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -657,16 +693,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -676,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -693,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -709,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -726,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -743,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -761,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -778,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
@@ -796,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -813,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -830,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
@@ -846,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
         <v>4</v>
@@ -862,7 +898,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -878,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -894,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
@@ -911,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -928,7 +964,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -944,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4">
         <v>3</v>
@@ -960,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4">
         <v>3</v>
@@ -977,7 +1013,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
@@ -993,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
@@ -1178,7 +1214,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D44" s="4">
         <f>SUM(C3:C33)</f>
@@ -1205,147 +1241,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="47.25" customHeight="1">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="B13">
-        <f>SUM(B5:B12)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
+        <f>SUM(B5:B11)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.75" customHeight="1">
+      <c r="B14" s="8"/>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1">
       <c r="B17" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>